--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F44EFB-4348-0547-88C9-1889EA6FDBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D4CF7-B4F8-5948-829D-51B59FCC076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{CA0BAF00-B0EF-AE45-B93A-A3E19366BAC0}"/>
   </bookViews>
@@ -36,39 +36,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>wechatID</t>
   </si>
   <si>
-    <t>_WeiboChen</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>note</t>
   </si>
   <si>
-    <t>陈炜博</t>
-  </si>
-  <si>
     <t>女士</t>
   </si>
   <si>
     <t>IIIMUCUN</t>
   </si>
   <si>
-    <t>wangmy3999</t>
-  </si>
-  <si>
-    <t>汪孟洋</t>
-  </si>
-  <si>
     <t>先生</t>
   </si>
   <si>
     <t>林村</t>
+  </si>
+  <si>
+    <t>wxid_0877788777721</t>
+  </si>
+  <si>
+    <t>俞韵</t>
+  </si>
+  <si>
+    <t>wxid_hujkr5k9re512</t>
+  </si>
+  <si>
+    <t>金华英</t>
+  </si>
+  <si>
+    <t>夫妇</t>
+  </si>
+  <si>
+    <t>蒋子青</t>
+  </si>
+  <si>
+    <t>BobbyAndSally</t>
+  </si>
+  <si>
+    <t>严晨曦</t>
+  </si>
+  <si>
+    <t>c_yan_only</t>
+  </si>
+  <si>
+    <t>陈梦阳</t>
+  </si>
+  <si>
+    <t>Camyyang</t>
+  </si>
+  <si>
+    <t>a/e</t>
   </si>
 </sst>
 </file>
@@ -440,61 +464,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED66EE0-EA37-804A-9ACF-4275D72B54CB}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D4CF7-B4F8-5948-829D-51B59FCC076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8FA045-EDAE-AC46-B7A6-5DF7DCE4CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{CA0BAF00-B0EF-AE45-B93A-A3E19366BAC0}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8FA045-EDAE-AC46-B7A6-5DF7DCE4CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5074805-43B1-9848-B5FB-ACA8E31EEC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2140" windowWidth="28040" windowHeight="17440" xr2:uid="{CA0BAF00-B0EF-AE45-B93A-A3E19366BAC0}"/>
+    <workbookView xWindow="3260" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{CA0BAF00-B0EF-AE45-B93A-A3E19366BAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>wechatID</t>
   </si>
@@ -93,6 +93,54 @@
   </si>
   <si>
     <t>a/e</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Karasssssss7</t>
+  </si>
+  <si>
+    <t>余韵致</t>
+  </si>
+  <si>
+    <t>ck1043329116</t>
+  </si>
+  <si>
+    <t>陈宽</t>
+  </si>
+  <si>
+    <t>dhazll</t>
+  </si>
+  <si>
+    <t>董涵真</t>
+  </si>
+  <si>
+    <t>yuanyangyuanyang_</t>
+  </si>
+  <si>
+    <t>周元阳</t>
+  </si>
+  <si>
+    <t>徐思露</t>
+  </si>
+  <si>
+    <t>xusilu2011</t>
+  </si>
+  <si>
+    <t>徐雨晨</t>
+  </si>
+  <si>
+    <t>shifengaoxiaoxyc</t>
+  </si>
+  <si>
+    <t>ltcltc_1994</t>
+  </si>
+  <si>
+    <t>林天成</t>
   </si>
 </sst>
 </file>
@@ -464,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED66EE0-EA37-804A-9ACF-4275D72B54CB}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,6 +523,7 @@
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -501,8 +550,8 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -515,8 +564,8 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -529,8 +578,8 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,8 +592,8 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -557,8 +606,8 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -571,8 +620,106 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>2</v>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5074805-43B1-9848-B5FB-ACA8E31EEC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDF5247-E7B2-FE40-AE33-67F3008E047B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2120" windowWidth="28040" windowHeight="17440" xr2:uid="{CA0BAF00-B0EF-AE45-B93A-A3E19366BAC0}"/>
+    <workbookView xWindow="3260" yWindow="2100" windowWidth="28040" windowHeight="17440" xr2:uid="{CA0BAF00-B0EF-AE45-B93A-A3E19366BAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDF5247-E7B2-FE40-AE33-67F3008E047B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420293CE-EC29-2D45-874C-00969BE2F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2100" windowWidth="28040" windowHeight="17440" xr2:uid="{CA0BAF00-B0EF-AE45-B93A-A3E19366BAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>wechatID</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>林天成</t>
+  </si>
+  <si>
+    <t>--jdjdbljdblsjdptsph</t>
+  </si>
+  <si>
+    <t>周佳琦</t>
   </si>
 </sst>
 </file>
@@ -176,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED66EE0-EA37-804A-9ACF-4275D72B54CB}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,6 +729,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation-link/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB0AFE5-A7FA-8844-B02D-9153371C3613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC995AA0-7976-0E44-80D3-0C0C61F59406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,7 +818,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1515,7 +1515,7 @@
         <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC995AA0-7976-0E44-80D3-0C0C61F59406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE455BC-F587-3C4B-8DD6-4756CE9DC857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,9 +421,6 @@
     <t>lhww</t>
   </si>
   <si>
-    <t>李洪莞莞</t>
-  </si>
-  <si>
     <t>http://wnsw.caddk.cn/afternoon/?wid=lhww</t>
   </si>
   <si>
@@ -452,6 +449,9 @@
   </si>
   <si>
     <t>http://wnsw.caddk.cn/evening/?wid=zb</t>
+  </si>
+  <si>
+    <t>李洪菀菀</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1529,67 +1529,67 @@
         <v>132</v>
       </c>
       <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
         <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
         <v>135</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
         <v>136</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
         <v>138</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
         <v>139</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
         <v>141</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
         <v>142</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B9B73-ABE3-EC47-9E7A-890CA1F19F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA4D319-E29D-3C47-98E4-CEB1191A0FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="51200" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,10 +466,10 @@
     <t>吴小华</t>
   </si>
   <si>
-    <t>wxh2</t>
-  </si>
-  <si>
     <t>http://wnsw.caddk.cn/evening/?wid=wxh2</t>
+  </si>
+  <si>
+    <t>Wxhcaa</t>
   </si>
 </sst>
 </file>
@@ -847,10 +847,13 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1636,7 +1639,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
         <v>147</v>
@@ -1648,7 +1651,7 @@
         <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9563E95A-5B0F-B840-9B3B-89B8DDC9CBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03AC888-5C76-D544-9DCE-66772BFD9249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,7 +622,7 @@
     <t>http://wnsw.caddk.cn/evening/?wid=zjj</t>
   </si>
   <si>
-    <t>先生及沈滨女士</t>
+    <t>先生及沈宾女士</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03AC888-5C76-D544-9DCE-66772BFD9249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB6B084-998C-194D-9C56-49840FC4B146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="204">
   <si>
     <t>wechatID</t>
   </si>
@@ -623,13 +623,22 @@
   </si>
   <si>
     <t>先生及沈宾女士</t>
+  </si>
+  <si>
+    <t>雷宇洋</t>
+  </si>
+  <si>
+    <t>lyy</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/afternoon/?wid=lyy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +651,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -676,16 +693,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -986,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1709,7 +1729,7 @@
       <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2049,7 +2069,7 @@
       <c r="D62" t="s">
         <v>26</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2066,11 +2086,34 @@
       <c r="D63" t="s">
         <v>26</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>199</v>
       </c>
     </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E63" r:id="rId1" xr:uid="{D90CE304-E364-E844-B109-FC5AD8808553}"/>
+    <hyperlink ref="E62" r:id="rId2" xr:uid="{B979A62E-0777-9847-A969-A8CD8C2B87D7}"/>
+    <hyperlink ref="E42" r:id="rId3" xr:uid="{80115065-82CF-2D48-AAAA-E35D13CB1274}"/>
+    <hyperlink ref="E64" r:id="rId4" xr:uid="{580F5A0F-3961-F243-BFE5-4C8E00F8BCB0}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB6B084-998C-194D-9C56-49840FC4B146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3108F25-6DFB-0240-AEE4-258ADBCDEDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation-link/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3108F25-6DFB-0240-AEE4-258ADBCDEDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F6A0A0-6DA6-1545-81A9-71880DE797E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="233">
   <si>
     <t>wechatID</t>
   </si>
@@ -619,26 +619,113 @@
     <t>朱家俊</t>
   </si>
   <si>
+    <t>先生及沈滨女士</t>
+  </si>
+  <si>
     <t>http://wnsw.caddk.cn/evening/?wid=zjj</t>
   </si>
   <si>
-    <t>先生及沈宾女士</t>
+    <t>lyy</t>
   </si>
   <si>
     <t>雷宇洋</t>
   </si>
   <si>
-    <t>lyy</t>
-  </si>
-  <si>
-    <t>http://wnsw.caddk.cn/afternoon/?wid=lyy</t>
+    <t>http://wnsw.caddk.cn/evening/?wid=lyy</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>何怡</t>
+  </si>
+  <si>
+    <t>女士、章建先生</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=hy</t>
+  </si>
+  <si>
+    <t>jlj</t>
+  </si>
+  <si>
+    <t>金连均</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=jlj</t>
+  </si>
+  <si>
+    <t>wgj</t>
+  </si>
+  <si>
+    <t>王关金</t>
+  </si>
+  <si>
+    <t>、陈兰香一家</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=wgj</t>
+  </si>
+  <si>
+    <t>cxxian</t>
+  </si>
+  <si>
+    <t>陈洵贤</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=cxxian</t>
+  </si>
+  <si>
+    <t>yzx</t>
+  </si>
+  <si>
+    <t>叶智兴</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=yzx</t>
+  </si>
+  <si>
+    <t>dyz</t>
+  </si>
+  <si>
+    <t>丁一志</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=dyz</t>
+  </si>
+  <si>
+    <t>wrj</t>
+  </si>
+  <si>
+    <t>吴荣金</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=wrj</t>
+  </si>
+  <si>
+    <t>clh</t>
+  </si>
+  <si>
+    <t>陈琳慧</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=clh</t>
+  </si>
+  <si>
+    <t>hch</t>
+  </si>
+  <si>
+    <t>胡彩花</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=hch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,14 +738,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -693,19 +772,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1006,17 +1082,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1729,7 +1802,7 @@
       <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2069,7 +2142,7 @@
       <c r="D62" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2081,21 +2154,21 @@
         <v>198</v>
       </c>
       <c r="C63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
         <v>200</v>
-      </c>
-      <c r="D63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" t="s">
         <v>202</v>
-      </c>
-      <c r="B64" t="s">
-        <v>201</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
@@ -2103,18 +2176,164 @@
       <c r="D64" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
         <v>203</v>
       </c>
     </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E63" r:id="rId1" xr:uid="{D90CE304-E364-E844-B109-FC5AD8808553}"/>
-    <hyperlink ref="E62" r:id="rId2" xr:uid="{B979A62E-0777-9847-A969-A8CD8C2B87D7}"/>
-    <hyperlink ref="E42" r:id="rId3" xr:uid="{80115065-82CF-2D48-AAAA-E35D13CB1274}"/>
-    <hyperlink ref="E64" r:id="rId4" xr:uid="{580F5A0F-3961-F243-BFE5-4C8E00F8BCB0}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation-link/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F6A0A0-6DA6-1545-81A9-71880DE797E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742DE44-070B-7349-8156-7EB509A738E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="237">
   <si>
     <t>wechatID</t>
   </si>
@@ -719,13 +719,25 @@
   </si>
   <si>
     <t>http://wnsw.caddk.cn/evening/?wid=hch</t>
+  </si>
+  <si>
+    <t>何师傅</t>
+  </si>
+  <si>
+    <t>、何师母</t>
+  </si>
+  <si>
+    <t>heshifu</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=heshifu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +750,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -772,16 +792,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1082,9 +1105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2193,84 +2218,84 @@
       <c r="D65" t="s">
         <v>26</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="D66" t="s">
         <v>26</v>
       </c>
-      <c r="E66" t="s">
-        <v>210</v>
+      <c r="E66" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
         <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -2279,15 +2304,15 @@
         <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -2296,15 +2321,15 @@
         <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -2313,15 +2338,15 @@
         <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -2330,10 +2355,32 @@
         <v>26</v>
       </c>
       <c r="E73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E65" r:id="rId1" xr:uid="{4C4058DE-249C-5A4E-9FD1-9F035D5678F3}"/>
+    <hyperlink ref="E66" r:id="rId2" xr:uid="{8EF4223B-CD6C-5248-A4A9-F965D7361459}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742DE44-070B-7349-8156-7EB509A738E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176EA915-8024-A544-A318-3B22FD7709F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="242">
   <si>
     <t>wechatID</t>
   </si>
@@ -706,18 +706,12 @@
     <t>clh</t>
   </si>
   <si>
-    <t>陈琳慧</t>
-  </si>
-  <si>
     <t>http://wnsw.caddk.cn/evening/?wid=clh</t>
   </si>
   <si>
     <t>hch</t>
   </si>
   <si>
-    <t>胡彩花</t>
-  </si>
-  <si>
     <t>http://wnsw.caddk.cn/evening/?wid=hch</t>
   </si>
   <si>
@@ -731,6 +725,27 @@
   </si>
   <si>
     <t>http://wnsw.caddk.cn/evening/?wid=heshifu</t>
+  </si>
+  <si>
+    <t>、陈云兰夫妇</t>
+  </si>
+  <si>
+    <t>、金燕夫妇</t>
+  </si>
+  <si>
+    <t>、何平夫妇</t>
+  </si>
+  <si>
+    <t>、陈琳慧夫妇</t>
+  </si>
+  <si>
+    <t>骆江杰</t>
+  </si>
+  <si>
+    <t>、胡彩花夫妇</t>
+  </si>
+  <si>
+    <t>朱瑞忠</t>
   </si>
 </sst>
 </file>
@@ -1107,13 +1122,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2224,19 +2241,19 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2298,7 +2315,7 @@
         <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="D70" t="s">
         <v>26</v>
@@ -2315,7 +2332,7 @@
         <v>222</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="D71" t="s">
         <v>26</v>
@@ -2332,7 +2349,7 @@
         <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
@@ -2346,33 +2363,33 @@
         <v>227</v>
       </c>
       <c r="B73" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" t="s">
         <v>228</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
         <v>230</v>
-      </c>
-      <c r="B74" t="s">
-        <v>231</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CF215B-9C72-1D4F-BC92-612148F857BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1C7D8-D5C4-AF4D-8B56-E60A4CEA9452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/guestlist.xlsx
+++ b/guestlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weibo/Desktop/spring2025/结婚？/invitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C1C7D8-D5C4-AF4D-8B56-E60A4CEA9452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309EE0B-B8CF-7344-B0D2-846B285D65C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="281">
   <si>
     <t>wechatID</t>
   </si>
@@ -854,6 +854,15 @@
   </si>
   <si>
     <t>fsy</t>
+  </si>
+  <si>
+    <t>肖水贤</t>
+  </si>
+  <si>
+    <t>xsx</t>
+  </si>
+  <si>
+    <t>http://wnsw.caddk.cn/evening/?wid=xsx</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2701,10 +2710,28 @@
         <v>276</v>
       </c>
     </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>279</v>
+      </c>
+      <c r="B87" t="s">
+        <v>278</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E85" r:id="rId1" xr:uid="{0DC95F1F-DE2B-3044-9695-FC474441A339}"/>
     <hyperlink ref="E86" r:id="rId2" xr:uid="{355E9F91-F3FA-114A-93C6-DB1180D13FF4}"/>
+    <hyperlink ref="E87" r:id="rId3" xr:uid="{D6307393-8C98-DD4B-B0FB-52F719719465}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
